--- a/Analyzed/try2/data_2011.xlsx
+++ b/Analyzed/try2/data_2011.xlsx
@@ -541,13 +541,13 @@
         <v>1278.76</v>
       </c>
       <c r="L2">
-        <v>62.8</v>
+        <v>2198</v>
       </c>
       <c r="M2">
         <v>59.21094343562768</v>
       </c>
       <c r="N2">
-        <v>102.74</v>
+        <v>2979.46</v>
       </c>
       <c r="O2">
         <v>1061.96</v>
@@ -632,13 +632,13 @@
         <v>1942.409</v>
       </c>
       <c r="L3">
-        <v>59.7</v>
+        <v>2089.5</v>
       </c>
       <c r="M3">
         <v>70.79042801315708</v>
       </c>
       <c r="N3">
-        <v>135.08</v>
+        <v>3917.32</v>
       </c>
       <c r="O3">
         <v>1215.82</v>
@@ -683,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -723,13 +723,13 @@
         <v>1263.71</v>
       </c>
       <c r="L4">
-        <v>71</v>
+        <v>2485</v>
       </c>
       <c r="M4">
         <v>57.72689929744594</v>
       </c>
       <c r="N4">
-        <v>54.15000000000001</v>
+        <v>1570.35</v>
       </c>
       <c r="O4">
         <v>889.62</v>
@@ -765,7 +765,7 @@
         <v>3</v>
       </c>
       <c r="Z4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>3</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -814,13 +814,13 @@
         <v>1934.158</v>
       </c>
       <c r="L5">
-        <v>63.1</v>
+        <v>2208.5</v>
       </c>
       <c r="M5">
         <v>61.23005438607896</v>
       </c>
       <c r="N5">
-        <v>87.76000000000001</v>
+        <v>2545.04</v>
       </c>
       <c r="O5">
         <v>1006.43</v>
@@ -853,7 +853,7 @@
         <v>3</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -905,13 +905,13 @@
         <v>1391.948</v>
       </c>
       <c r="L6">
-        <v>61.7</v>
+        <v>2159.5</v>
       </c>
       <c r="M6">
         <v>54.55710005737367</v>
       </c>
       <c r="N6">
-        <v>56.44</v>
+        <v>1636.76</v>
       </c>
       <c r="O6">
         <v>1114.66</v>
@@ -956,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         <v>1536.891</v>
       </c>
       <c r="L7">
-        <v>57.3</v>
+        <v>2005.5</v>
       </c>
       <c r="M7">
         <v>64.3451420565064</v>
       </c>
       <c r="N7">
-        <v>78.71000000000001</v>
+        <v>2282.59</v>
       </c>
       <c r="O7">
         <v>1097.83</v>
@@ -1035,7 +1035,7 @@
         <v>5</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z7">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="AC7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1087,13 +1087,13 @@
         <v>962.6560000000001</v>
       </c>
       <c r="L8">
-        <v>56.1</v>
+        <v>1963.5</v>
       </c>
       <c r="M8">
         <v>64.27895408139261</v>
       </c>
       <c r="N8">
-        <v>55.85</v>
+        <v>1619.65</v>
       </c>
       <c r="O8">
         <v>1028.09</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>1</v>
@@ -1178,13 +1178,13 @@
         <v>1476.947</v>
       </c>
       <c r="L9">
-        <v>50.7</v>
+        <v>1774.5</v>
       </c>
       <c r="M9">
         <v>73.64266923231334</v>
       </c>
       <c r="N9">
-        <v>66.07000000000001</v>
+        <v>1916.03</v>
       </c>
       <c r="O9">
         <v>1034.56</v>
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA9">
         <v>0</v>
